--- a/data/trans_orig/IP3105-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP3105-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7BB96C-F9A1-4E42-993B-0158C3BCC3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D0D9C4F-3858-40B8-991B-7C0208E60DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{19DBAFDF-1B8A-4BB8-B941-707313D2DBEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{305683EA-31A9-4067-8989-A99DD4CA7919}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="721">
   <si>
     <t>Menores según la frecuencia de tomar yogures en 2007 (Tasa respuesta: 93,11%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -85,2149 +85,2122 @@
     <t>4,22%</t>
   </si>
   <si>
-    <t>20,77%</t>
+    <t>23,92%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar yogures en 2012 (Tasa respuesta: 91,76%)</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar yogures en 2016 (Tasa respuesta: 92,33%)</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>20,76%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar yogures en 2012 (Tasa respuesta: 91,76%)</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar yogures en 2015 (Tasa respuesta: 92,33%)</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>60,9%</t>
   </si>
   <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
     <t>57,75%</t>
   </si>
   <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>62,21%</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68674580-E0DD-4E2E-ABF9-4F1CB10A83E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A00E4FE-ACE8-403B-B354-EB6078C97E7E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3385,7 +3358,7 @@
         <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3394,13 +3367,13 @@
         <v>1979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -3409,13 +3382,13 @@
         <v>5092</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3403,13 @@
         <v>5072</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -3445,7 +3418,7 @@
         <v>6984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>114</v>
@@ -3466,7 +3439,7 @@
         <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3454,13 @@
         <v>22051</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -3496,13 +3469,13 @@
         <v>19472</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>65</v>
@@ -3619,7 +3592,7 @@
         <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3648,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3687,13 +3660,13 @@
         <v>4019</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -3702,13 +3675,13 @@
         <v>4532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -3717,13 +3690,13 @@
         <v>8551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3711,13 @@
         <v>3054</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3753,13 +3726,13 @@
         <v>1848</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3768,13 +3741,13 @@
         <v>4903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3762,13 @@
         <v>13322</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3804,13 +3777,13 @@
         <v>11486</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -3819,13 +3792,13 @@
         <v>24808</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3813,13 @@
         <v>22852</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -3855,13 +3828,13 @@
         <v>18553</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -3870,13 +3843,13 @@
         <v>41405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3864,13 @@
         <v>93017</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>149</v>
@@ -3906,13 +3879,13 @@
         <v>90074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>294</v>
@@ -3921,13 +3894,13 @@
         <v>183092</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3956,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3995,13 +3968,13 @@
         <v>3303</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -4013,10 +3986,10 @@
         <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -4025,13 +3998,13 @@
         <v>6338</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4019,13 @@
         <v>7200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4061,13 +4034,13 @@
         <v>5998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -4076,13 +4049,13 @@
         <v>13198</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4070,13 @@
         <v>21438</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -4112,13 +4085,13 @@
         <v>16070</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -4127,13 +4100,13 @@
         <v>37508</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4121,13 @@
         <v>32498</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -4163,13 +4136,13 @@
         <v>44331</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>107</v>
@@ -4178,13 +4151,13 @@
         <v>76829</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4172,13 @@
         <v>129406</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>166</v>
@@ -4214,13 +4187,13 @@
         <v>127749</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>354</v>
@@ -4229,13 +4202,13 @@
         <v>257155</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4276,13 @@
         <v>12300</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -4318,13 +4291,13 @@
         <v>12403</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>37</v>
@@ -4333,13 +4306,13 @@
         <v>24703</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4327,13 @@
         <v>18625</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -4369,13 +4342,13 @@
         <v>20143</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>58</v>
@@ -4384,13 +4357,13 @@
         <v>38768</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4378,13 @@
         <v>74544</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>94</v>
@@ -4420,13 +4393,13 @@
         <v>61853</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>205</v>
@@ -4435,13 +4408,13 @@
         <v>136397</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4429,13 @@
         <v>141270</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>195</v>
@@ -4471,7 +4444,7 @@
         <v>131568</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>260</v>
@@ -4620,7 +4593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E54B86-20D4-4F16-A954-BC1D1519CF8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809A70D9-386F-4938-BFAB-3212EA6F250C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4813,10 +4786,10 @@
         <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4825,13 +4798,13 @@
         <v>3921</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,10 +5043,10 @@
         <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5082,13 +5055,13 @@
         <v>9870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5076,13 @@
         <v>2037</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>112</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5118,13 +5091,13 @@
         <v>5786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5133,13 +5106,13 @@
         <v>7823</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5127,13 @@
         <v>9543</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -5169,13 +5142,13 @@
         <v>8236</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M12" s="7">
         <v>25</v>
@@ -5184,13 +5157,13 @@
         <v>17779</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5178,13 @@
         <v>17508</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5220,13 +5193,13 @@
         <v>16062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5235,13 +5208,13 @@
         <v>33570</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5229,13 @@
         <v>84054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>109</v>
@@ -5271,13 +5244,13 @@
         <v>77276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>227</v>
@@ -5286,13 +5259,13 @@
         <v>161329</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5333,13 @@
         <v>3175</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -5375,13 +5348,13 @@
         <v>6697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5411,13 +5384,13 @@
         <v>6002</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -5426,13 +5399,13 @@
         <v>6391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -5441,13 +5414,13 @@
         <v>12393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5435,13 @@
         <v>9357</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -5477,13 +5450,13 @@
         <v>16453</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -5492,13 +5465,13 @@
         <v>25810</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>374</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5486,13 @@
         <v>22648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -5528,13 +5501,13 @@
         <v>23982</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -5543,13 +5516,13 @@
         <v>46630</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>17</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5537,13 @@
         <v>163525</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -5579,13 +5552,13 @@
         <v>138018</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>449</v>
@@ -5594,13 +5567,13 @@
         <v>301543</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5668,13 +5641,13 @@
         <v>1251</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5683,13 +5656,13 @@
         <v>5487</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>394</v>
+        <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -5698,13 +5671,13 @@
         <v>6739</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,10 +5695,10 @@
         <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>72</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5734,13 +5707,13 @@
         <v>6371</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -5749,13 +5722,13 @@
         <v>10842</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>404</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5743,13 @@
         <v>10451</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5785,13 +5758,13 @@
         <v>9883</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
         <v>32</v>
@@ -5800,13 +5773,13 @@
         <v>20334</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5794,13 @@
         <v>16876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -5836,13 +5809,13 @@
         <v>17402</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -5851,13 +5824,13 @@
         <v>34278</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5845,13 @@
         <v>116088</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>159</v>
@@ -5887,13 +5860,13 @@
         <v>101796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>337</v>
@@ -5902,13 +5875,13 @@
         <v>217884</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,7 +5937,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5976,13 +5949,13 @@
         <v>4455</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -5991,13 +5964,13 @@
         <v>4463</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -6006,13 +5979,13 @@
         <v>8917</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6000,13 @@
         <v>12486</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -6042,13 +6015,13 @@
         <v>10493</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>429</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -6057,13 +6030,13 @@
         <v>22979</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6051,13 @@
         <v>16634</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>125</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H30" s="7">
         <v>21</v>
@@ -6093,13 +6066,13 @@
         <v>16498</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -6108,13 +6081,13 @@
         <v>33131</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6102,13 @@
         <v>23547</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -6144,13 +6117,13 @@
         <v>19395</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -6159,13 +6132,13 @@
         <v>42942</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6153,13 @@
         <v>133681</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="H32" s="7">
         <v>183</v>
@@ -6195,13 +6168,13 @@
         <v>139371</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="M32" s="7">
         <v>364</v>
@@ -6210,13 +6183,13 @@
         <v>273052</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6257,13 @@
         <v>15084</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>458</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -6299,13 +6272,13 @@
         <v>21027</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>244</v>
+        <v>461</v>
       </c>
       <c r="M34" s="7">
         <v>52</v>
@@ -6314,13 +6287,13 @@
         <v>36111</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>194</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6308,13 @@
         <v>26689</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>477</v>
+        <v>65</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="H35" s="7">
         <v>45</v>
@@ -6350,13 +6323,13 @@
         <v>31268</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="M35" s="7">
         <v>83</v>
@@ -6365,13 +6338,13 @@
         <v>57957</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>321</v>
+        <v>469</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6359,13 @@
         <v>47967</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
       <c r="H36" s="7">
         <v>73</v>
@@ -6401,13 +6374,13 @@
         <v>51070</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>489</v>
+        <v>323</v>
       </c>
       <c r="M36" s="7">
         <v>142</v>
@@ -6416,13 +6389,13 @@
         <v>99037</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>486</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6410,13 @@
         <v>83781</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>492</v>
+        <v>427</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="H37" s="7">
         <v>114</v>
@@ -6452,13 +6425,13 @@
         <v>80141</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>329</v>
+        <v>478</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="M37" s="7">
         <v>237</v>
@@ -6467,13 +6440,13 @@
         <v>163922</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,13 +6461,13 @@
         <v>513459</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="H38" s="7">
         <v>683</v>
@@ -6503,13 +6476,13 @@
         <v>472456</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="M38" s="7">
         <v>1412</v>
@@ -6518,13 +6491,13 @@
         <v>985914</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162D2E8E-0011-4204-8C2B-D189EF9E8BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAF94F4-DC2B-468D-A80B-3AE0BDD3000E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6618,7 +6591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6725,13 +6698,13 @@
         <v>1033</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6740,13 +6713,13 @@
         <v>1203</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -6755,13 +6728,13 @@
         <v>2236</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6749,13 @@
         <v>2083</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6791,13 +6764,13 @@
         <v>1030</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6806,13 +6779,13 @@
         <v>3114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6800,13 @@
         <v>3129</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6842,13 +6815,13 @@
         <v>1036</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -6857,13 +6830,13 @@
         <v>4165</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>513</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6851,13 @@
         <v>5864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>529</v>
+        <v>478</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6893,13 +6866,13 @@
         <v>4598</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -6908,13 +6881,13 @@
         <v>10462</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6902,13 @@
         <v>10613</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -6944,13 +6917,13 @@
         <v>13616</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -6959,13 +6932,13 @@
         <v>24229</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7006,13 @@
         <v>2944</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>392</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>546</v>
+        <v>433</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -7048,13 +7021,13 @@
         <v>3746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -7063,13 +7036,13 @@
         <v>6689</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7057,13 @@
         <v>1508</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>551</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -7099,13 +7072,13 @@
         <v>5005</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>553</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>554</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -7117,10 +7090,10 @@
         <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7108,13 @@
         <v>12113</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -7150,13 +7123,13 @@
         <v>15995</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -7165,13 +7138,13 @@
         <v>28108</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>564</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7159,13 @@
         <v>34576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -7201,13 +7174,13 @@
         <v>26949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -7216,13 +7189,13 @@
         <v>61525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7210,13 @@
         <v>63590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="H14" s="7">
         <v>74</v>
@@ -7252,13 +7225,13 @@
         <v>50744</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="M14" s="7">
         <v>160</v>
@@ -7267,13 +7240,13 @@
         <v>114334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7314,13 @@
         <v>690</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>586</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -7356,13 +7329,13 @@
         <v>3482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>114</v>
+        <v>570</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>571</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7371,13 +7344,13 @@
         <v>4172</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>57</v>
+        <v>574</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,10 +7368,10 @@
         <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -7407,13 +7380,13 @@
         <v>7315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -7422,13 +7395,13 @@
         <v>11549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>482</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7416,13 @@
         <v>23514</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -7458,13 +7431,13 @@
         <v>31217</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>586</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>588</v>
       </c>
       <c r="M18" s="7">
         <v>80</v>
@@ -7473,13 +7446,13 @@
         <v>54731</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>601</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7467,13 @@
         <v>59474</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -7509,13 +7482,13 @@
         <v>49309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="M19" s="7">
         <v>167</v>
@@ -7524,13 +7497,13 @@
         <v>108782</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7518,13 @@
         <v>121391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="H20" s="7">
         <v>164</v>
@@ -7560,13 +7533,13 @@
         <v>100944</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="M20" s="7">
         <v>345</v>
@@ -7575,13 +7548,13 @@
         <v>222336</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,7 +7610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7649,13 +7622,13 @@
         <v>1978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>201</v>
+        <v>610</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7664,13 +7637,13 @@
         <v>2892</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>624</v>
+        <v>461</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -7679,13 +7652,13 @@
         <v>4871</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>32</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7673,13 @@
         <v>1275</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -7715,13 +7688,13 @@
         <v>3309</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>630</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>619</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -7730,13 +7703,13 @@
         <v>4584</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>631</v>
+        <v>150</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>550</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7724,13 @@
         <v>12678</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -7766,13 +7739,13 @@
         <v>14609</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>206</v>
+        <v>627</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -7781,13 +7754,13 @@
         <v>27287</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>640</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7775,13 @@
         <v>33442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -7817,13 +7790,13 @@
         <v>20408</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -7832,13 +7805,13 @@
         <v>53851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>647</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7826,13 @@
         <v>109021</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="H26" s="7">
         <v>170</v>
@@ -7868,13 +7841,13 @@
         <v>102480</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="M26" s="7">
         <v>334</v>
@@ -7883,13 +7856,13 @@
         <v>211501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,7 +7918,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7957,13 +7930,13 @@
         <v>4951</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -7972,13 +7945,13 @@
         <v>3056</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -7987,13 +7960,13 @@
         <v>8007</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>66</v>
+        <v>653</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +7981,13 @@
         <v>8005</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>357</v>
+        <v>655</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>245</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -8023,13 +7996,13 @@
         <v>8315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>657</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>668</v>
+        <v>314</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -8038,13 +8011,13 @@
         <v>16320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>13</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8032,13 @@
         <v>17175</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>671</v>
+        <v>331</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -8074,13 +8047,13 @@
         <v>18157</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>337</v>
+        <v>664</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="M30" s="7">
         <v>49</v>
@@ -8089,13 +8062,13 @@
         <v>35332</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8083,13 @@
         <v>40845</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>678</v>
+        <v>173</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -8125,13 +8098,13 @@
         <v>43971</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="M31" s="7">
         <v>118</v>
@@ -8140,13 +8113,13 @@
         <v>84816</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8134,13 @@
         <v>118304</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="H32" s="7">
         <v>156</v>
@@ -8176,13 +8149,13 @@
         <v>115485</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>543</v>
+        <v>680</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="M32" s="7">
         <v>321</v>
@@ -8191,13 +8164,13 @@
         <v>233789</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,10 +8241,10 @@
         <v>62</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>392</v>
+        <v>686</v>
       </c>
       <c r="H34" s="7">
         <v>23</v>
@@ -8280,13 +8253,13 @@
         <v>14379</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>696</v>
+        <v>203</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -8295,13 +8268,13 @@
         <v>25976</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>697</v>
+        <v>23</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8289,13 @@
         <v>17106</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>148</v>
+        <v>692</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -8331,13 +8304,13 @@
         <v>24974</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>29</v>
+        <v>694</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="M35" s="7">
         <v>59</v>
@@ -8346,13 +8319,13 @@
         <v>42080</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>295</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8340,13 @@
         <v>68609</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>705</v>
+        <v>634</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>418</v>
+        <v>699</v>
       </c>
       <c r="H36" s="7">
         <v>119</v>
@@ -8382,13 +8355,13 @@
         <v>81014</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="M36" s="7">
         <v>215</v>
@@ -8397,13 +8370,13 @@
         <v>149623</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>712</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,13 +8391,13 @@
         <v>174201</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="H37" s="7">
         <v>216</v>
@@ -8433,13 +8406,13 @@
         <v>145236</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>717</v>
+        <v>178</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="M37" s="7">
         <v>462</v>
@@ -8448,13 +8421,13 @@
         <v>319437</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>574</v>
+        <v>710</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8442,13 @@
         <v>422921</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="H38" s="7">
         <v>579</v>
@@ -8484,13 +8457,13 @@
         <v>383269</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>726</v>
+        <v>639</v>
       </c>
       <c r="M38" s="7">
         <v>1188</v>
@@ -8499,13 +8472,13 @@
         <v>806190</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
